--- a/Pennsylvania/2022-combined.xlsx
+++ b/Pennsylvania/2022-combined.xlsx
@@ -19,6 +19,7 @@
     <sheet name="New York IT203" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="pa40-2015" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="PA-40 G-L" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="LocalIncometax" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Line1" vbProcedure="false">W2!$D$6</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="853">
   <si>
     <t xml:space="preserve">Form 1040 (2022) </t>
   </si>
@@ -2292,6 +2293,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Schedule A</t>
     </r>
@@ -2301,6 +2303,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> if required.</t>
     </r>
@@ -2322,6 +2325,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PA Schedule B</t>
     </r>
@@ -2331,6 +2335,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> if required.</t>
     </r>
@@ -2361,6 +2366,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PA Schedule J</t>
     </r>
@@ -2370,6 +2376,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2391,6 +2398,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PA Schedule T</t>
     </r>
@@ -2400,6 +2408,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2412,6 +2421,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Total PA Taxable Income. </t>
     </r>
@@ -2421,6 +2431,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Add only the positive income amounts from Lines 1c, 2, 3, 4, 5, 6, 7 and 8. DO NOT ADD any losses reported on Lines 4, 5 or 6.</t>
     </r>
@@ -2481,6 +2492,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PA Schedule(s) G-L</t>
     </r>
@@ -2490,6 +2502,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and/or</t>
     </r>
@@ -2500,6 +2513,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> RK-1</t>
     </r>
@@ -2509,6 +2523,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2530,6 +2545,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PA Schedule OC</t>
     </r>
@@ -2539,6 +2555,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -2563,6 +2580,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">TOTAL PAYMENT DUE</t>
     </r>
@@ -2572,6 +2590,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. See the instructions.</t>
     </r>
@@ -2584,6 +2603,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OVERPAYMENT</t>
     </r>
@@ -2593,6 +2613,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. If Line 24 is more than the total of Line 12, Line 25 and Line 27 enter the difference here.</t>
     </r>
@@ -2842,20 +2863,270 @@
   </si>
   <si>
     <t xml:space="preserve">Multiply the decimal on Part III, Line 4 by the amount on Part I, Line 4c. Enter the result here and on Part I, Line 4d.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Tax Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gross Compensation as Reported on W-2(s). (Enclose W-2(s))                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unreimbursed Employee Business Expenses. (Enclose PA Schedule UE)                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other Taxable Earned Income *                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Taxable Earned Income (Subtract Line 2 from Line 1 and add Line 3)                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Net Profit (Enclose PA Schedules*)                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Net Loss (Enclose PA Schedules*)                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Taxable Net Profit (Subtract Line 6 from Line 5. If less than zero, enter zero)          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Taxable Earned Income and Net Profit (Add Lines 4 and 7)                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total Tax Liability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Line 8 multiplied by tax rate)                                                    </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Local Earned Income Tax Withheld (MAY NOT EQUAL W-2 - SEE INSTRUCTIONS)*                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quarterly Estimated Payments/Credit From Previous Tax Year                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Out of State or Philadelphia credits* (include supporting documentation)                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TOTAL PAYMENTS and CREDITS (Add lines 10 through 12)                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overpayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refund IF MORE THAN $1.00, enter amount (or select option in 15)                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Credit Taxpayer/Spouse (Amount of Line 14 you want as a credit to your account)                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> EARNED INCOME TAX BALANCE DUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Line 9 minus Line 13)                                           </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Penalty after April 15* (Multiply line 16 by 0.01 x number of months late-or a fraction of)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interest after April 15* Multiply line 16 by 0.00246 x number of months late-or a fraction of) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TOTAL PAYMENT DUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Add Lines 16, 17, and 18) Payable to HAB-EIT                                </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-RECIPROCAL STATE WORKSHEET (See Instructions line 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NR1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EARNED INCOME: Taxed in other state as shown on the state tax return.  Enclose a copy of state return or credit will be disallowed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local tax 1% or Act 511 portion of rate                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NR2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local Tax                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NR3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tax Liability Paid to other state(s)                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Income Tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NR4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PA Income Tax (line 1 x PA Income Tax rate for year being reported)                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NR5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREDIT to be used against Local Tax (Line 3 minus line 4)                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount to enter on line 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On line 12 enter this amount or the amount on line 2 of worksheet, whichever is less. (If less than zero, enter zero)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="171" formatCode="0%"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2984,11 +3255,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2997,20 +3274,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3098,7 +3363,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -3111,6 +3376,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -3526,9 +3797,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="334">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4593,95 +4866,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="54" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="35" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="15" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="4" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="8" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="15" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="17" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="15" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="54" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="35" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="15" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="15" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4689,7 +4942,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4717,11 +4970,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4733,11 +4986,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="15" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="15" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4745,80 +4998,144 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="17" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="17" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="17" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="15" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="7" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="7" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="17" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="17" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="17" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="15" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4858,7 +5175,7 @@
       <rgbColor rgb="FFBDD7EE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -4866,7 +5183,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFDEEBF7"/>
-      <rgbColor rgb="FFDEE6EF"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFD9D9D9"/>
@@ -4900,7 +5217,7 @@
   </sheetPr>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -6211,614 +6528,614 @@
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="137.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="137.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.61"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="B3" s="266"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="267" t="str">
+      <c r="A5" s="266" t="str">
         <f aca="false">"1a."</f>
         <v>1a.</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="267" t="s">
         <v>678</v>
       </c>
-      <c r="C5" s="269" t="str">
+      <c r="C5" s="137" t="str">
         <f aca="false">"1a."</f>
         <v>1a.</v>
       </c>
-      <c r="D5" s="270"/>
+      <c r="D5" s="268"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="271" t="str">
+      <c r="A6" s="269" t="str">
         <f aca="false">"1b."</f>
         <v>1b.</v>
       </c>
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="270" t="s">
         <v>679</v>
       </c>
-      <c r="C6" s="273" t="str">
+      <c r="C6" s="141" t="str">
         <f aca="false">"1b."</f>
         <v>1b.</v>
       </c>
-      <c r="D6" s="274"/>
+      <c r="D6" s="271"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="271" t="str">
+      <c r="A7" s="269" t="str">
         <f aca="false">"1c."</f>
         <v>1c.</v>
       </c>
-      <c r="B7" s="272" t="s">
+      <c r="B7" s="270" t="s">
         <v>680</v>
       </c>
-      <c r="C7" s="273" t="str">
+      <c r="C7" s="141" t="str">
         <f aca="false">"1c."</f>
         <v>1c.</v>
       </c>
-      <c r="D7" s="274" t="n">
+      <c r="D7" s="271" t="n">
         <f aca="false">D5-D6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="271" t="str">
+      <c r="A8" s="269" t="str">
         <f aca="false">"2."</f>
         <v>2.</v>
       </c>
-      <c r="B8" s="272" t="s">
+      <c r="B8" s="270" t="s">
         <v>681</v>
       </c>
-      <c r="C8" s="273" t="str">
+      <c r="C8" s="141" t="str">
         <f aca="false">"2."</f>
         <v>2.</v>
       </c>
-      <c r="D8" s="274"/>
+      <c r="D8" s="271"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="271" t="str">
+      <c r="A9" s="269" t="str">
         <f aca="false">"3."</f>
         <v>3.</v>
       </c>
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="270" t="s">
         <v>682</v>
       </c>
-      <c r="C9" s="273" t="str">
+      <c r="C9" s="141" t="str">
         <f aca="false">"3."</f>
         <v>3.</v>
       </c>
-      <c r="D9" s="274"/>
+      <c r="D9" s="271"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="271" t="str">
+      <c r="A10" s="269" t="str">
         <f aca="false">"4."</f>
         <v>4.</v>
       </c>
-      <c r="B10" s="272" t="s">
+      <c r="B10" s="270" t="s">
         <v>683</v>
       </c>
-      <c r="C10" s="273" t="str">
+      <c r="C10" s="141" t="str">
         <f aca="false">"4."</f>
         <v>4.</v>
       </c>
-      <c r="D10" s="274"/>
+      <c r="D10" s="271"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="271" t="str">
+      <c r="A11" s="269" t="str">
         <f aca="false">"5."</f>
         <v>5.</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="270" t="s">
         <v>684</v>
       </c>
-      <c r="C11" s="273" t="str">
+      <c r="C11" s="141" t="str">
         <f aca="false">"5."</f>
         <v>5.</v>
       </c>
-      <c r="D11" s="274"/>
+      <c r="D11" s="271"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="271" t="str">
+      <c r="A12" s="269" t="str">
         <f aca="false">"6."</f>
         <v>6.</v>
       </c>
-      <c r="B12" s="272" t="s">
+      <c r="B12" s="270" t="s">
         <v>685</v>
       </c>
-      <c r="C12" s="273" t="str">
+      <c r="C12" s="141" t="str">
         <f aca="false">"6."</f>
         <v>6.</v>
       </c>
-      <c r="D12" s="274"/>
+      <c r="D12" s="271"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="271" t="str">
+      <c r="A13" s="269" t="str">
         <f aca="false">"7."</f>
         <v>7.</v>
       </c>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="270" t="s">
         <v>686</v>
       </c>
-      <c r="C13" s="273" t="str">
+      <c r="C13" s="141" t="str">
         <f aca="false">"7."</f>
         <v>7.</v>
       </c>
-      <c r="D13" s="274"/>
+      <c r="D13" s="271"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="271" t="str">
+      <c r="A14" s="269" t="str">
         <f aca="false">"8."</f>
         <v>8.</v>
       </c>
-      <c r="B14" s="272" t="s">
+      <c r="B14" s="270" t="s">
         <v>687</v>
       </c>
-      <c r="C14" s="273" t="str">
+      <c r="C14" s="141" t="str">
         <f aca="false">"8."</f>
         <v>8.</v>
       </c>
-      <c r="D14" s="274"/>
+      <c r="D14" s="271"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="271" t="str">
+      <c r="A15" s="269" t="str">
         <f aca="false">"9."</f>
         <v>9.</v>
       </c>
-      <c r="B15" s="275" t="s">
+      <c r="B15" s="272" t="s">
         <v>688</v>
       </c>
-      <c r="C15" s="273" t="str">
+      <c r="C15" s="141" t="str">
         <f aca="false">"9."</f>
         <v>9.</v>
       </c>
-      <c r="D15" s="274" t="n">
+      <c r="D15" s="271" t="n">
         <f aca="false">SUM(D7:D14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="271" t="str">
+      <c r="A16" s="269" t="str">
         <f aca="false">"10."</f>
         <v>10.</v>
       </c>
-      <c r="B16" s="272" t="s">
+      <c r="B16" s="270" t="s">
         <v>689</v>
       </c>
-      <c r="C16" s="273" t="str">
+      <c r="C16" s="141" t="str">
         <f aca="false">"10."</f>
         <v>10.</v>
       </c>
-      <c r="D16" s="274"/>
+      <c r="D16" s="271"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="276" t="str">
+      <c r="A17" s="273" t="str">
         <f aca="false">"11."</f>
         <v>11.</v>
       </c>
-      <c r="B17" s="277" t="s">
+      <c r="B17" s="274" t="s">
         <v>690</v>
       </c>
-      <c r="C17" s="278" t="str">
+      <c r="C17" s="150" t="str">
         <f aca="false">"11."</f>
         <v>11.</v>
       </c>
-      <c r="D17" s="279" t="n">
+      <c r="D17" s="275" t="n">
         <f aca="false">D15-D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="280" t="str">
+      <c r="A18" s="276" t="str">
         <f aca="false">"12."</f>
         <v>12.</v>
       </c>
-      <c r="B18" s="281" t="s">
+      <c r="B18" s="277" t="s">
         <v>691</v>
       </c>
-      <c r="C18" s="282" t="str">
+      <c r="C18" s="278" t="str">
         <f aca="false">"12."</f>
         <v>12.</v>
       </c>
-      <c r="D18" s="283" t="n">
+      <c r="D18" s="279" t="n">
         <f aca="false">0.0307*D17</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="280" t="str">
+      <c r="A19" s="276" t="str">
         <f aca="false">"13."</f>
         <v>13.</v>
       </c>
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="277" t="s">
         <v>692</v>
       </c>
-      <c r="C19" s="282" t="str">
+      <c r="C19" s="278" t="str">
         <f aca="false">"13."</f>
         <v>13.</v>
       </c>
-      <c r="D19" s="283"/>
+      <c r="D19" s="279"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="271" t="str">
+      <c r="A20" s="269" t="str">
         <f aca="false">"14."</f>
         <v>14.</v>
       </c>
-      <c r="B20" s="272" t="s">
+      <c r="B20" s="270" t="s">
         <v>693</v>
       </c>
-      <c r="C20" s="284" t="str">
+      <c r="C20" s="177" t="str">
         <f aca="false">"14."</f>
         <v>14.</v>
       </c>
-      <c r="D20" s="285"/>
+      <c r="D20" s="280"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="271" t="str">
+      <c r="A21" s="269" t="str">
         <f aca="false">"15."</f>
         <v>15.</v>
       </c>
-      <c r="B21" s="272" t="s">
+      <c r="B21" s="270" t="s">
         <v>694</v>
       </c>
-      <c r="C21" s="273" t="str">
+      <c r="C21" s="141" t="str">
         <f aca="false">"15."</f>
         <v>15.</v>
       </c>
-      <c r="D21" s="274"/>
+      <c r="D21" s="271"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="271" t="str">
+      <c r="A22" s="269" t="str">
         <f aca="false">"16."</f>
         <v>16.</v>
       </c>
-      <c r="B22" s="272" t="s">
+      <c r="B22" s="270" t="s">
         <v>695</v>
       </c>
-      <c r="C22" s="273" t="str">
+      <c r="C22" s="141" t="str">
         <f aca="false">"16."</f>
         <v>16.</v>
       </c>
-      <c r="D22" s="274"/>
+      <c r="D22" s="271"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="271" t="str">
+      <c r="A23" s="269" t="str">
         <f aca="false">"17."</f>
         <v>17.</v>
       </c>
-      <c r="B23" s="272" t="s">
+      <c r="B23" s="270" t="s">
         <v>696</v>
       </c>
-      <c r="C23" s="273" t="str">
+      <c r="C23" s="141" t="str">
         <f aca="false">"17."</f>
         <v>17.</v>
       </c>
-      <c r="D23" s="274"/>
+      <c r="D23" s="271"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="276" t="str">
+      <c r="A24" s="273" t="str">
         <f aca="false">"18."</f>
         <v>18.</v>
       </c>
-      <c r="B24" s="277" t="s">
+      <c r="B24" s="274" t="s">
         <v>697</v>
       </c>
-      <c r="C24" s="278" t="str">
+      <c r="C24" s="150" t="str">
         <f aca="false">"18."</f>
         <v>18.</v>
       </c>
-      <c r="D24" s="279" t="n">
+      <c r="D24" s="275" t="n">
         <f aca="false">SUM(D20:D23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="286" t="s">
+      <c r="A25" s="281" t="s">
         <v>698</v>
       </c>
-      <c r="B25" s="286"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="286"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="271" t="str">
+      <c r="A26" s="269" t="str">
         <f aca="false">"19a."</f>
         <v>19a.</v>
       </c>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="270" t="s">
         <v>699</v>
       </c>
-      <c r="C26" s="273" t="str">
+      <c r="C26" s="141" t="str">
         <f aca="false">"19a."</f>
         <v>19a.</v>
       </c>
-      <c r="D26" s="287"/>
+      <c r="D26" s="282"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="271" t="str">
+      <c r="A27" s="269" t="str">
         <f aca="false">"20."</f>
         <v>20.</v>
       </c>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="270" t="s">
         <v>700</v>
       </c>
-      <c r="C27" s="273" t="str">
+      <c r="C27" s="141" t="str">
         <f aca="false">"20."</f>
         <v>20.</v>
       </c>
-      <c r="D27" s="274"/>
+      <c r="D27" s="271"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="276" t="str">
+      <c r="A28" s="273" t="str">
         <f aca="false">"21."</f>
         <v>21.</v>
       </c>
-      <c r="B28" s="277" t="s">
+      <c r="B28" s="274" t="s">
         <v>701</v>
       </c>
-      <c r="C28" s="278" t="str">
+      <c r="C28" s="150" t="str">
         <f aca="false">"21."</f>
         <v>21.</v>
       </c>
-      <c r="D28" s="279"/>
+      <c r="D28" s="275"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="271" t="str">
+      <c r="A29" s="269" t="str">
         <f aca="false">"22."</f>
         <v>22.</v>
       </c>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="270" t="s">
         <v>702</v>
       </c>
-      <c r="C29" s="284" t="str">
+      <c r="C29" s="177" t="str">
         <f aca="false">"22."</f>
         <v>22.</v>
       </c>
-      <c r="D29" s="285"/>
+      <c r="D29" s="280"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="271" t="str">
+      <c r="A30" s="269" t="str">
         <f aca="false">"23."</f>
         <v>23.</v>
       </c>
-      <c r="B30" s="272" t="s">
+      <c r="B30" s="270" t="s">
         <v>703</v>
       </c>
-      <c r="C30" s="273" t="str">
+      <c r="C30" s="141" t="str">
         <f aca="false">"23."</f>
         <v>23.</v>
       </c>
-      <c r="D30" s="274"/>
+      <c r="D30" s="271"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="271" t="str">
+      <c r="A31" s="269" t="str">
         <f aca="false">"24."</f>
         <v>24.</v>
       </c>
-      <c r="B31" s="272" t="s">
+      <c r="B31" s="270" t="s">
         <v>704</v>
       </c>
-      <c r="C31" s="273" t="str">
+      <c r="C31" s="141" t="str">
         <f aca="false">"24."</f>
         <v>24.</v>
       </c>
-      <c r="D31" s="274" t="n">
+      <c r="D31" s="271" t="n">
         <f aca="false">D19+D24+SUM(D28:D30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="271" t="str">
+      <c r="A32" s="269" t="str">
         <f aca="false">"25."</f>
         <v>25.</v>
       </c>
-      <c r="B32" s="272" t="s">
+      <c r="B32" s="270" t="s">
         <v>705</v>
       </c>
-      <c r="C32" s="273" t="str">
+      <c r="C32" s="141" t="str">
         <f aca="false">"25."</f>
         <v>25.</v>
       </c>
-      <c r="D32" s="274"/>
+      <c r="D32" s="271"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="271" t="str">
+      <c r="A33" s="269" t="str">
         <f aca="false">"26."</f>
         <v>26.</v>
       </c>
-      <c r="B33" s="272" t="s">
+      <c r="B33" s="270" t="s">
         <v>706</v>
       </c>
-      <c r="C33" s="273" t="str">
+      <c r="C33" s="141" t="str">
         <f aca="false">"26."</f>
         <v>26.</v>
       </c>
-      <c r="D33" s="274" t="n">
+      <c r="D33" s="271" t="n">
         <f aca="false">IF(D18+D32&gt;D31,D18+D32-D31,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="276" t="str">
+      <c r="A34" s="273" t="str">
         <f aca="false">"27."</f>
         <v>27.</v>
       </c>
-      <c r="B34" s="277" t="s">
+      <c r="B34" s="274" t="s">
         <v>707</v>
       </c>
-      <c r="C34" s="278" t="str">
+      <c r="C34" s="150" t="str">
         <f aca="false">"27."</f>
         <v>27.</v>
       </c>
-      <c r="D34" s="279"/>
+      <c r="D34" s="275"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="280" t="str">
+      <c r="A35" s="276" t="str">
         <f aca="false">"28."</f>
         <v>28.</v>
       </c>
-      <c r="B35" s="288" t="s">
+      <c r="B35" s="283" t="s">
         <v>708</v>
       </c>
-      <c r="C35" s="282" t="str">
+      <c r="C35" s="278" t="str">
         <f aca="false">"28."</f>
         <v>28.</v>
       </c>
-      <c r="D35" s="283"/>
+      <c r="D35" s="279"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="271" t="str">
+      <c r="A36" s="269" t="str">
         <f aca="false">"29."</f>
         <v>29.</v>
       </c>
-      <c r="B36" s="275" t="s">
+      <c r="B36" s="272" t="s">
         <v>709</v>
       </c>
-      <c r="C36" s="284" t="str">
+      <c r="C36" s="177" t="str">
         <f aca="false">"29."</f>
         <v>29.</v>
       </c>
-      <c r="D36" s="285" t="n">
+      <c r="D36" s="280" t="n">
         <f aca="false">IF(D31&gt;D18+D32+D34,D31-(D18+D32+D34),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="276" t="str">
+      <c r="A37" s="273" t="str">
         <f aca="false">"30."</f>
         <v>30.</v>
       </c>
-      <c r="B37" s="277" t="s">
+      <c r="B37" s="274" t="s">
         <v>710</v>
       </c>
-      <c r="C37" s="278" t="str">
+      <c r="C37" s="150" t="str">
         <f aca="false">"30."</f>
         <v>30.</v>
       </c>
-      <c r="D37" s="279"/>
+      <c r="D37" s="275"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="286" t="s">
+      <c r="A38" s="281" t="s">
         <v>711</v>
       </c>
-      <c r="B38" s="286"/>
-      <c r="C38" s="286"/>
-      <c r="D38" s="286"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="281"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="271" t="str">
+      <c r="A39" s="269" t="str">
         <f aca="false">"31."</f>
         <v>31.</v>
       </c>
-      <c r="B39" s="272" t="s">
+      <c r="B39" s="270" t="s">
         <v>712</v>
       </c>
-      <c r="C39" s="273" t="str">
+      <c r="C39" s="141" t="str">
         <f aca="false">"31."</f>
         <v>31.</v>
       </c>
-      <c r="D39" s="274" t="n">
+      <c r="D39" s="271" t="n">
         <f aca="false">D36-D37</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="271" t="str">
+      <c r="A40" s="269" t="str">
         <f aca="false">"32."</f>
         <v>32.</v>
       </c>
-      <c r="B40" s="272" t="s">
+      <c r="B40" s="270" t="s">
         <v>713</v>
       </c>
-      <c r="C40" s="273" t="str">
+      <c r="C40" s="141" t="str">
         <f aca="false">"32."</f>
         <v>32.</v>
       </c>
-      <c r="D40" s="274" t="n">
+      <c r="D40" s="271" t="n">
         <f aca="false">D36-D37-D39</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="271" t="str">
+      <c r="A41" s="269" t="str">
         <f aca="false">"33."</f>
         <v>33.</v>
       </c>
-      <c r="B41" s="272" t="s">
+      <c r="B41" s="270" t="s">
         <v>713</v>
       </c>
-      <c r="C41" s="273" t="str">
+      <c r="C41" s="141" t="str">
         <f aca="false">"33."</f>
         <v>33.</v>
       </c>
-      <c r="D41" s="274" t="n">
+      <c r="D41" s="271" t="n">
         <f aca="false">D39-D40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="271" t="str">
+      <c r="A42" s="269" t="str">
         <f aca="false">"34."</f>
         <v>34.</v>
       </c>
-      <c r="B42" s="272" t="s">
+      <c r="B42" s="270" t="s">
         <v>713</v>
       </c>
-      <c r="C42" s="273" t="str">
+      <c r="C42" s="141" t="str">
         <f aca="false">"34."</f>
         <v>34.</v>
       </c>
-      <c r="D42" s="274" t="n">
+      <c r="D42" s="271" t="n">
         <f aca="false">D40-D41</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="271" t="str">
+      <c r="A43" s="269" t="str">
         <f aca="false">"35."</f>
         <v>35.</v>
       </c>
-      <c r="B43" s="272" t="s">
+      <c r="B43" s="270" t="s">
         <v>713</v>
       </c>
-      <c r="C43" s="273" t="str">
+      <c r="C43" s="141" t="str">
         <f aca="false">"35."</f>
         <v>35.</v>
       </c>
-      <c r="D43" s="274" t="n">
+      <c r="D43" s="271" t="n">
         <f aca="false">D41-D42</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="276" t="str">
+      <c r="A44" s="273" t="str">
         <f aca="false">"36."</f>
         <v>36.</v>
       </c>
-      <c r="B44" s="277" t="s">
+      <c r="B44" s="274" t="s">
         <v>713</v>
       </c>
-      <c r="C44" s="278" t="str">
+      <c r="C44" s="150" t="str">
         <f aca="false">"36."</f>
         <v>36.</v>
       </c>
-      <c r="D44" s="274" t="n">
+      <c r="D44" s="271" t="n">
         <f aca="false">D42-D43</f>
         <v>0</v>
       </c>
@@ -6853,7 +7170,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.61"/>
@@ -6865,47 +7182,47 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="284" t="s">
         <v>715</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="285" t="s">
         <v>716</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="291"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292" t="s">
+      <c r="A5" s="286"/>
+      <c r="B5" s="287"/>
+      <c r="C5" s="287" t="s">
         <v>520</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="287" t="s">
         <v>717</v>
       </c>
-      <c r="E5" s="293" t="s">
+      <c r="E5" s="288" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="294" t="s">
+      <c r="A6" s="289" t="s">
         <v>719</v>
       </c>
       <c r="B6" s="203" t="s">
         <v>720</v>
       </c>
       <c r="C6" s="203"/>
-      <c r="D6" s="295"/>
-      <c r="E6" s="296"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="291"/>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="294" t="s">
+      <c r="A7" s="289" t="s">
         <v>721</v>
       </c>
       <c r="B7" s="203" t="s">
@@ -6917,176 +7234,176 @@
       <c r="D7" s="203" t="s">
         <v>724</v>
       </c>
-      <c r="E7" s="296"/>
+      <c r="E7" s="291"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="294" t="s">
+      <c r="A8" s="289" t="s">
         <v>725</v>
       </c>
       <c r="B8" s="203" t="s">
         <v>726</v>
       </c>
-      <c r="C8" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="296"/>
+      <c r="C8" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="291"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="294" t="s">
+      <c r="A9" s="289" t="s">
         <v>727</v>
       </c>
       <c r="B9" s="203" t="s">
         <v>728</v>
       </c>
-      <c r="C9" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="295"/>
-      <c r="E9" s="296"/>
+      <c r="C9" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="290"/>
+      <c r="E9" s="291"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="294" t="s">
+      <c r="A10" s="289" t="s">
         <v>729</v>
       </c>
       <c r="B10" s="203" t="s">
         <v>730</v>
       </c>
-      <c r="C10" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="298" t="n">
+      <c r="C10" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="293" t="n">
         <f aca="false">MIN(C10:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="294" t="s">
+      <c r="A11" s="289" t="s">
         <v>731</v>
       </c>
       <c r="B11" s="203" t="s">
         <v>732</v>
       </c>
-      <c r="C11" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="298" t="n">
+      <c r="C11" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="293" t="n">
         <f aca="false">MIN(C11:D11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="294" t="s">
+      <c r="A12" s="289" t="s">
         <v>733</v>
       </c>
       <c r="B12" s="203" t="s">
         <v>734</v>
       </c>
-      <c r="C12" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="298" t="n">
+      <c r="C12" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="293" t="n">
         <f aca="false">MIN(C12:D12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="294" t="s">
+      <c r="A13" s="289" t="s">
         <v>735</v>
       </c>
       <c r="B13" s="203" t="s">
         <v>736</v>
       </c>
-      <c r="C13" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="298" t="n">
+      <c r="C13" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="293" t="n">
         <f aca="false">MIN(C13:D13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="294" t="s">
+      <c r="A14" s="289" t="s">
         <v>737</v>
       </c>
       <c r="B14" s="203" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="298" t="n">
+      <c r="C14" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="293" t="n">
         <f aca="false">MIN(C14:D14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="294" t="s">
+      <c r="A15" s="289" t="s">
         <v>739</v>
       </c>
       <c r="B15" s="203" t="s">
         <v>740</v>
       </c>
-      <c r="C15" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="298" t="n">
+      <c r="C15" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="293" t="n">
         <f aca="false">MIN(C15:D15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="294" t="s">
+      <c r="A16" s="289" t="s">
         <v>741</v>
       </c>
       <c r="B16" s="203" t="s">
         <v>742</v>
       </c>
-      <c r="C16" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="297" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="298" t="n">
+      <c r="C16" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="293" t="n">
         <f aca="false">MIN(C16:D16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="299" t="s">
+      <c r="A17" s="294" t="s">
         <v>743</v>
       </c>
-      <c r="B17" s="300" t="s">
+      <c r="B17" s="295" t="s">
         <v>744</v>
       </c>
-      <c r="C17" s="301" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="301" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="302" t="n">
+      <c r="C17" s="296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="297" t="n">
         <f aca="false">MIN(C17:D17)</f>
         <v>0</v>
       </c>
@@ -7095,12 +7412,12 @@
       <c r="A18" s="0" t="s">
         <v>745</v>
       </c>
-      <c r="B18" s="303" t="s">
+      <c r="B18" s="298" t="s">
         <v>746</v>
       </c>
-      <c r="C18" s="303"/>
-      <c r="D18" s="303"/>
-      <c r="E18" s="304" t="n">
+      <c r="C18" s="298"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="299" t="n">
         <f aca="false">SUM(E10:E17)</f>
         <v>0</v>
       </c>
@@ -7109,12 +7426,12 @@
       <c r="A19" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="B19" s="289" t="s">
+      <c r="B19" s="284" t="s">
         <v>748</v>
       </c>
-      <c r="C19" s="289"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="297" t="n">
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7122,12 +7439,12 @@
       <c r="A20" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="B20" s="289" t="s">
+      <c r="B20" s="284" t="s">
         <v>750</v>
       </c>
-      <c r="C20" s="289"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="297" t="n">
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7135,12 +7452,12 @@
       <c r="A21" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="B21" s="289" t="s">
+      <c r="B21" s="284" t="s">
         <v>752</v>
       </c>
-      <c r="C21" s="289"/>
-      <c r="D21" s="289"/>
-      <c r="E21" s="304" t="n">
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="299" t="n">
         <f aca="false">MIN(E19:E20)</f>
         <v>0</v>
       </c>
@@ -7149,11 +7466,11 @@
       <c r="A22" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="B22" s="289" t="s">
+      <c r="B22" s="284" t="s">
         <v>754</v>
       </c>
-      <c r="C22" s="289"/>
-      <c r="D22" s="289"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="284"/>
       <c r="E22" s="0" t="e">
         <f aca="false">pIII5</f>
         <v>#DIV/0!</v>
@@ -7163,12 +7480,12 @@
       <c r="A23" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="B23" s="289" t="s">
+      <c r="B23" s="284" t="s">
         <v>756</v>
       </c>
-      <c r="C23" s="289"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="304" t="e">
+      <c r="C23" s="284"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="299" t="e">
         <f aca="false">E21-E22</f>
         <v>#DIV/0!</v>
       </c>
@@ -7177,12 +7494,12 @@
       <c r="A24" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="284" t="s">
         <v>758</v>
       </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="297" t="n">
+      <c r="C24" s="284"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="292" t="n">
         <f aca="false">ROUND(E18*0.0307,2)</f>
         <v>0</v>
       </c>
@@ -7191,351 +7508,911 @@
       <c r="A25" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="B25" s="289" t="s">
+      <c r="B25" s="284" t="s">
         <v>760</v>
       </c>
-      <c r="C25" s="289"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="305" t="e">
+      <c r="C25" s="284"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="300" t="e">
         <f aca="false">MIN(E23:E24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="290" t="s">
+      <c r="A27" s="285" t="s">
         <v>761</v>
       </c>
-      <c r="B27" s="290"/>
-      <c r="C27" s="290"/>
-      <c r="D27" s="290"/>
+      <c r="B27" s="285"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="306" t="s">
+      <c r="A28" s="301" t="s">
         <v>762</v>
       </c>
-      <c r="B28" s="307" t="s">
+      <c r="B28" s="302" t="s">
         <v>763</v>
       </c>
-      <c r="C28" s="307" t="s">
+      <c r="C28" s="302" t="s">
         <v>520</v>
       </c>
-      <c r="D28" s="307" t="s">
+      <c r="D28" s="302" t="s">
         <v>717</v>
       </c>
-      <c r="E28" s="307" t="s">
+      <c r="E28" s="302" t="s">
         <v>718</v>
       </c>
-      <c r="F28" s="307" t="s">
+      <c r="F28" s="302" t="s">
         <v>764</v>
       </c>
-      <c r="G28" s="308" t="s">
+      <c r="G28" s="303" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="309" t="s">
+      <c r="A29" s="304" t="s">
         <v>766</v>
       </c>
-      <c r="B29" s="310" t="s">
+      <c r="B29" s="305" t="s">
         <v>767</v>
       </c>
-      <c r="C29" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="312" t="s">
+      <c r="C29" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="307" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="309" t="s">
+      <c r="A30" s="304" t="s">
         <v>769</v>
       </c>
-      <c r="B30" s="310" t="s">
+      <c r="B30" s="305" t="s">
         <v>770</v>
       </c>
-      <c r="C30" s="311"/>
-      <c r="D30" s="311"/>
-      <c r="E30" s="311"/>
-      <c r="F30" s="311"/>
-      <c r="G30" s="312"/>
+      <c r="C30" s="306"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="306"/>
+      <c r="F30" s="306"/>
+      <c r="G30" s="307"/>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="309" t="s">
+      <c r="A31" s="304" t="s">
         <v>771</v>
       </c>
-      <c r="B31" s="310" t="s">
+      <c r="B31" s="305" t="s">
         <v>726</v>
       </c>
-      <c r="C31" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="313" t="n">
+      <c r="C31" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="308" t="n">
         <f aca="false">SUM(C31:F31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="309" t="s">
+      <c r="A32" s="304" t="s">
         <v>772</v>
       </c>
-      <c r="B32" s="310" t="s">
+      <c r="B32" s="305" t="s">
         <v>732</v>
       </c>
-      <c r="C32" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="313" t="n">
+      <c r="C32" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="308" t="n">
         <f aca="false">SUM(C32:F32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="309" t="s">
+      <c r="A33" s="304" t="s">
         <v>773</v>
       </c>
-      <c r="B33" s="310" t="s">
+      <c r="B33" s="305" t="s">
         <v>734</v>
       </c>
-      <c r="C33" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="313" t="n">
+      <c r="C33" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="308" t="n">
         <f aca="false">SUM(C33:F33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="309" t="s">
+      <c r="A34" s="304" t="s">
         <v>774</v>
       </c>
-      <c r="B34" s="310" t="s">
+      <c r="B34" s="305" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="313" t="n">
+      <c r="C34" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="308" t="n">
         <f aca="false">SUM(C34:F34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="309" t="s">
+      <c r="A35" s="304" t="s">
         <v>775</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="305" t="s">
         <v>738</v>
       </c>
-      <c r="C35" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="313" t="n">
+      <c r="C35" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="308" t="n">
         <f aca="false">SUM(C35:F35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="309" t="s">
+      <c r="A36" s="304" t="s">
         <v>776</v>
       </c>
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="305" t="s">
         <v>777</v>
       </c>
-      <c r="C36" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="313" t="n">
+      <c r="C36" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="308" t="n">
         <f aca="false">SUM(C36:F36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="309" t="s">
+      <c r="A37" s="304" t="s">
         <v>778</v>
       </c>
-      <c r="B37" s="310" t="s">
+      <c r="B37" s="305" t="s">
         <v>742</v>
       </c>
-      <c r="C37" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="311" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="313" t="n">
+      <c r="C37" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="308" t="n">
         <f aca="false">SUM(C37:F37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="314" t="s">
+      <c r="A38" s="309" t="s">
         <v>779</v>
       </c>
-      <c r="B38" s="315" t="s">
+      <c r="B38" s="310" t="s">
         <v>744</v>
       </c>
-      <c r="C38" s="316" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="316" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="316" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="316" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="317" t="n">
+      <c r="C38" s="311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="311" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="312" t="n">
         <f aca="false">SUM(C38:F38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="290" t="s">
+      <c r="A40" s="285" t="s">
         <v>780</v>
       </c>
-      <c r="B40" s="290"/>
-      <c r="C40" s="290"/>
-      <c r="D40" s="290"/>
+      <c r="B40" s="285"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="285"/>
     </row>
     <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="318" t="s">
+      <c r="A41" s="313" t="s">
         <v>781</v>
       </c>
-      <c r="B41" s="319" t="s">
+      <c r="B41" s="314" t="s">
         <v>782</v>
       </c>
-      <c r="C41" s="320" t="n">
+      <c r="C41" s="315" t="n">
         <f aca="false">E18</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="294" t="s">
+      <c r="A42" s="289" t="s">
         <v>783</v>
       </c>
       <c r="B42" s="203" t="s">
         <v>784</v>
       </c>
-      <c r="C42" s="298" t="n">
+      <c r="C42" s="293" t="n">
         <f aca="false">SUM(D10:D17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="294" t="s">
+      <c r="A43" s="289" t="s">
         <v>785</v>
       </c>
       <c r="B43" s="203" t="s">
         <v>786</v>
       </c>
-      <c r="C43" s="321" t="e">
+      <c r="C43" s="316" t="e">
         <f aca="false">ROUND(C41/C42,6)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="294"/>
+      <c r="A44" s="289"/>
       <c r="B44" s="203" t="s">
         <v>787</v>
       </c>
-      <c r="C44" s="321"/>
+      <c r="C44" s="316"/>
     </row>
     <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="294" t="s">
+      <c r="A45" s="289" t="s">
         <v>788</v>
       </c>
       <c r="B45" s="203" t="s">
         <v>789</v>
       </c>
-      <c r="C45" s="321" t="e">
+      <c r="C45" s="316" t="e">
         <f aca="false">1-C43</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="299" t="s">
+      <c r="A46" s="294" t="s">
         <v>790</v>
       </c>
-      <c r="B46" s="300" t="s">
+      <c r="B46" s="295" t="s">
         <v>791</v>
       </c>
-      <c r="C46" s="322" t="e">
+      <c r="C46" s="317" t="e">
         <f aca="false">ROUND(C45*E21,2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="118.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="319" t="s">
+        <v>796</v>
+      </c>
+      <c r="B4" s="320" t="s">
+        <v>797</v>
+      </c>
+      <c r="C4" s="321" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4" s="322" t="n">
+        <f aca="false">W2!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="319" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" s="320" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="321" t="s">
+        <v>798</v>
+      </c>
+      <c r="D5" s="322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="319" t="s">
+        <v>800</v>
+      </c>
+      <c r="B6" s="320" t="s">
+        <v>801</v>
+      </c>
+      <c r="C6" s="321" t="s">
+        <v>800</v>
+      </c>
+      <c r="D6" s="322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="319" t="s">
+        <v>802</v>
+      </c>
+      <c r="B7" s="320" t="s">
+        <v>803</v>
+      </c>
+      <c r="C7" s="321" t="s">
+        <v>802</v>
+      </c>
+      <c r="D7" s="323" t="n">
+        <f aca="false">D4+D6-D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="323" t="n">
+        <f aca="false">E4+E6-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="319" t="s">
+        <v>804</v>
+      </c>
+      <c r="B8" s="320" t="s">
+        <v>805</v>
+      </c>
+      <c r="C8" s="321" t="s">
+        <v>804</v>
+      </c>
+      <c r="D8" s="322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="319" t="s">
+        <v>806</v>
+      </c>
+      <c r="B9" s="320" t="s">
+        <v>807</v>
+      </c>
+      <c r="C9" s="321" t="s">
+        <v>806</v>
+      </c>
+      <c r="D9" s="322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="319" t="s">
+        <v>808</v>
+      </c>
+      <c r="B10" s="320" t="s">
+        <v>809</v>
+      </c>
+      <c r="C10" s="321" t="s">
+        <v>808</v>
+      </c>
+      <c r="D10" s="323" t="n">
+        <f aca="false">MAX(D8-D9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="323" t="n">
+        <f aca="false">MAX(E8-E9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="319" t="s">
+        <v>810</v>
+      </c>
+      <c r="B11" s="320" t="s">
+        <v>811</v>
+      </c>
+      <c r="C11" s="321" t="s">
+        <v>810</v>
+      </c>
+      <c r="D11" s="322" t="n">
+        <f aca="false">D7+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="319"/>
+      <c r="B12" s="320" t="s">
+        <v>812</v>
+      </c>
+      <c r="C12" s="321"/>
+      <c r="D12" s="324" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="E12" s="324" t="n">
+        <f aca="false">D12</f>
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="319" t="s">
+        <v>813</v>
+      </c>
+      <c r="B13" s="320" t="s">
+        <v>814</v>
+      </c>
+      <c r="C13" s="321" t="s">
+        <v>813</v>
+      </c>
+      <c r="D13" s="322" t="n">
+        <f aca="false">D11*D12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="322" t="n">
+        <f aca="false">E11*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="319" t="s">
+        <v>815</v>
+      </c>
+      <c r="B14" s="320" t="s">
+        <v>816</v>
+      </c>
+      <c r="C14" s="321" t="s">
+        <v>815</v>
+      </c>
+      <c r="D14" s="322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="319" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="320" t="s">
+        <v>818</v>
+      </c>
+      <c r="C15" s="321" t="s">
+        <v>817</v>
+      </c>
+      <c r="D15" s="322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="319" t="s">
+        <v>819</v>
+      </c>
+      <c r="B16" s="320" t="s">
+        <v>820</v>
+      </c>
+      <c r="C16" s="321" t="s">
+        <v>819</v>
+      </c>
+      <c r="D16" s="322" t="n">
+        <f aca="false">D34</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="322" t="n">
+        <f aca="false">E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="319" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" s="320" t="s">
+        <v>822</v>
+      </c>
+      <c r="C17" s="321" t="s">
+        <v>821</v>
+      </c>
+      <c r="D17" s="322" t="n">
+        <f aca="false">SUM(D14:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="322" t="n">
+        <f aca="false">SUM(E14:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="319"/>
+      <c r="B18" s="320" t="s">
+        <v>823</v>
+      </c>
+      <c r="C18" s="321"/>
+      <c r="D18" s="322" t="n">
+        <f aca="false">IF(D17&gt;D13,D17-D13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="322" t="n">
+        <f aca="false">IF(E17&gt;E13,E17-E13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="319" t="s">
+        <v>824</v>
+      </c>
+      <c r="B19" s="320" t="s">
+        <v>825</v>
+      </c>
+      <c r="C19" s="321" t="s">
+        <v>824</v>
+      </c>
+      <c r="D19" s="322" t="s">
+        <v>826</v>
+      </c>
+      <c r="E19" s="322"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="319" t="s">
+        <v>827</v>
+      </c>
+      <c r="B20" s="320" t="s">
+        <v>828</v>
+      </c>
+      <c r="C20" s="321" t="s">
+        <v>827</v>
+      </c>
+      <c r="D20" s="322" t="s">
+        <v>826</v>
+      </c>
+      <c r="E20" s="322"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="319" t="s">
+        <v>829</v>
+      </c>
+      <c r="B21" s="325" t="s">
+        <v>830</v>
+      </c>
+      <c r="C21" s="321" t="s">
+        <v>829</v>
+      </c>
+      <c r="D21" s="322" t="n">
+        <f aca="false">IF(D13&gt;D17,D13-D17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="322" t="n">
+        <f aca="false">IF(E13&gt;E17,E13-E17,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="319" t="s">
+        <v>831</v>
+      </c>
+      <c r="B22" s="320" t="s">
+        <v>832</v>
+      </c>
+      <c r="C22" s="321" t="s">
+        <v>831</v>
+      </c>
+      <c r="D22" s="322" t="s">
+        <v>826</v>
+      </c>
+      <c r="E22" s="322"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="319" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" s="320" t="s">
+        <v>834</v>
+      </c>
+      <c r="C23" s="321" t="s">
+        <v>833</v>
+      </c>
+      <c r="D23" s="322" t="s">
+        <v>826</v>
+      </c>
+      <c r="E23" s="322"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="319" t="s">
+        <v>835</v>
+      </c>
+      <c r="B24" s="325" t="s">
+        <v>836</v>
+      </c>
+      <c r="C24" s="321" t="s">
+        <v>835</v>
+      </c>
+      <c r="D24" s="322" t="n">
+        <f aca="false">SUM(D21:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="322" t="n">
+        <f aca="false">SUM(E21:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="326" t="s">
+        <v>837</v>
+      </c>
+      <c r="B26" s="326"/>
+      <c r="C26" s="326"/>
+      <c r="D26" s="326"/>
+      <c r="E26" s="326"/>
+      <c r="F26" s="326"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="327" t="s">
+        <v>838</v>
+      </c>
+      <c r="B27" s="328" t="s">
+        <v>839</v>
+      </c>
+      <c r="C27" s="328"/>
+      <c r="D27" s="318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="327" t="s">
+        <v>840</v>
+      </c>
+      <c r="B28" s="328" t="s">
+        <v>841</v>
+      </c>
+      <c r="C28" s="328"/>
+      <c r="D28" s="329" t="n">
+        <f aca="false">D12</f>
+        <v>0.0307</v>
+      </c>
+      <c r="E28" s="329" t="n">
+        <f aca="false">E12</f>
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="327" t="s">
+        <v>842</v>
+      </c>
+      <c r="B29" s="328" t="s">
+        <v>843</v>
+      </c>
+      <c r="C29" s="328"/>
+      <c r="D29" s="318" t="n">
+        <f aca="false">D27*D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="318" t="n">
+        <f aca="false">E27*E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="327" t="s">
+        <v>844</v>
+      </c>
+      <c r="B30" s="328" t="s">
+        <v>845</v>
+      </c>
+      <c r="C30" s="328"/>
+      <c r="D30" s="318" t="n">
+        <f aca="false">'New York IT203'!F66</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="327"/>
+      <c r="B31" s="328" t="s">
+        <v>846</v>
+      </c>
+      <c r="C31" s="328"/>
+      <c r="D31" s="330" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="E31" s="331" t="n">
+        <f aca="false">D31</f>
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="327" t="s">
+        <v>847</v>
+      </c>
+      <c r="B32" s="328" t="s">
+        <v>848</v>
+      </c>
+      <c r="C32" s="328"/>
+      <c r="D32" s="318" t="n">
+        <f aca="false">D31*D27</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="318" t="n">
+        <f aca="false">E31*E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="327" t="s">
+        <v>849</v>
+      </c>
+      <c r="B33" s="328" t="s">
+        <v>850</v>
+      </c>
+      <c r="C33" s="328"/>
+      <c r="D33" s="318" t="n">
+        <f aca="false">D30-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="318" t="n">
+        <f aca="false">E30-E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="328" t="s">
+        <v>851</v>
+      </c>
+      <c r="D34" s="332" t="n">
+        <f aca="false">MAX(MIN(D29,D33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="332" t="n">
+        <f aca="false">MAX(MIN(E29,E33),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="333" t="s">
+        <v>852</v>
+      </c>
+      <c r="B36" s="333"/>
+      <c r="C36" s="333"/>
+      <c r="D36" s="333"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A36:D36"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10342,9 +11219,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13399,7 +14276,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
